--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2524.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2524.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.576208293948401</v>
+        <v>2.295507907867432</v>
       </c>
       <c r="B1">
-        <v>3.627031849952536</v>
+        <v>2.410268783569336</v>
       </c>
       <c r="C1">
-        <v>3.380949192371142</v>
+        <v>2.492666244506836</v>
       </c>
       <c r="D1">
-        <v>1.811830811845129</v>
+        <v>3.244524478912354</v>
       </c>
       <c r="E1">
-        <v>1.816764756000729</v>
+        <v>2.302064895629883</v>
       </c>
     </row>
   </sheetData>
